--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tdgf1-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tdgf1-Acvr2a.xlsx
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Tdgf1</t>
+  </si>
+  <si>
+    <t>Acvr2a</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Tdgf1</t>
-  </si>
-  <si>
-    <t>Acvr2a</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -531,7 +531,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,10 +540,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.006530999999999999</v>
+        <v>0.08586166666666667</v>
       </c>
       <c r="H2">
-        <v>0.019593</v>
+        <v>0.257585</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.10301133333333</v>
+        <v>9.24193</v>
       </c>
       <c r="N2">
-        <v>39.309034</v>
+        <v>27.72579</v>
       </c>
       <c r="O2">
-        <v>0.2036753411238415</v>
+        <v>0.1468938537243544</v>
       </c>
       <c r="P2">
-        <v>0.2126567538160977</v>
+        <v>0.1569651396557324</v>
       </c>
       <c r="Q2">
-        <v>0.08557576701799999</v>
+        <v>0.7935275130166667</v>
       </c>
       <c r="R2">
-        <v>0.7701819031619999</v>
+        <v>7.14174761715</v>
       </c>
       <c r="S2">
-        <v>0.2036753411238415</v>
+        <v>0.1468938537243544</v>
       </c>
       <c r="T2">
-        <v>0.2126567538160977</v>
+        <v>0.1569651396557324</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,10 +602,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.006530999999999999</v>
+        <v>0.08586166666666667</v>
       </c>
       <c r="H3">
-        <v>0.019593</v>
+        <v>0.257585</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>88.626007</v>
       </c>
       <c r="O3">
-        <v>0.4592056932299319</v>
+        <v>0.469548954544906</v>
       </c>
       <c r="P3">
-        <v>0.479455154057023</v>
+        <v>0.5017420086455576</v>
       </c>
       <c r="Q3">
-        <v>0.192938817239</v>
+        <v>2.536525557010556</v>
       </c>
       <c r="R3">
-        <v>1.736449355151</v>
+        <v>22.828730013095</v>
       </c>
       <c r="S3">
-        <v>0.4592056932299319</v>
+        <v>0.469548954544906</v>
       </c>
       <c r="T3">
-        <v>0.479455154057023</v>
+        <v>0.5017420086455576</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,10 +664,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.006530999999999999</v>
+        <v>0.08586166666666667</v>
       </c>
       <c r="H4">
-        <v>0.019593</v>
+        <v>0.257585</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.915846333333334</v>
+        <v>7.349831333333333</v>
       </c>
       <c r="N4">
-        <v>17.747539</v>
+        <v>22.049494</v>
       </c>
       <c r="O4">
-        <v>0.09195687840951981</v>
+        <v>0.1168203014713749</v>
       </c>
       <c r="P4">
-        <v>0.09601187431786275</v>
+        <v>0.1248296948454213</v>
       </c>
       <c r="Q4">
-        <v>0.038636392403</v>
+        <v>0.6310687679988889</v>
       </c>
       <c r="R4">
-        <v>0.347727531627</v>
+        <v>5.67961891199</v>
       </c>
       <c r="S4">
-        <v>0.09195687840951981</v>
+        <v>0.1168203014713749</v>
       </c>
       <c r="T4">
-        <v>0.09601187431786275</v>
+        <v>0.1248296948454213</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,10 +726,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.006530999999999999</v>
+        <v>0.08586166666666667</v>
       </c>
       <c r="H5">
-        <v>0.019593</v>
+        <v>0.257585</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.1511595</v>
+        <v>12.1104985</v>
       </c>
       <c r="N5">
-        <v>16.302319</v>
+        <v>24.220997</v>
       </c>
       <c r="O5">
-        <v>0.1267029501450487</v>
+        <v>0.1924876941491673</v>
       </c>
       <c r="P5">
-        <v>0.08819342236226138</v>
+        <v>0.1371233128688515</v>
       </c>
       <c r="Q5">
-        <v>0.0532352226945</v>
+        <v>1.039827585374167</v>
       </c>
       <c r="R5">
-        <v>0.319411336167</v>
+        <v>6.238965512245</v>
       </c>
       <c r="S5">
-        <v>0.1267029501450487</v>
+        <v>0.1924876941491673</v>
       </c>
       <c r="T5">
-        <v>0.08819342236226138</v>
+        <v>0.1371233128688515</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,10 +788,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.006530999999999999</v>
+        <v>0.08586166666666667</v>
       </c>
       <c r="H6">
-        <v>0.019593</v>
+        <v>0.257585</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.620811666666666</v>
+        <v>4.671440333333334</v>
       </c>
       <c r="N6">
-        <v>22.862435</v>
+        <v>14.014321</v>
       </c>
       <c r="O6">
-        <v>0.1184591370916582</v>
+        <v>0.07424919611019735</v>
       </c>
       <c r="P6">
-        <v>0.123682795446755</v>
+        <v>0.079339843984437</v>
       </c>
       <c r="Q6">
-        <v>0.04977152099499999</v>
+        <v>0.4010976527538889</v>
       </c>
       <c r="R6">
-        <v>0.4479436889549999</v>
+        <v>3.609878874785</v>
       </c>
       <c r="S6">
-        <v>0.1184591370916582</v>
+        <v>0.07424919611019735</v>
       </c>
       <c r="T6">
-        <v>0.123682795446755</v>
+        <v>0.079339843984437</v>
       </c>
     </row>
   </sheetData>
